--- a/biology/Médecine/1560_en_santé_et_médecine/1560_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1560_en_santé_et_médecine/1560_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1560_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1560_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1560 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1560_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1560_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 décembre : le roi de France François II meurt d'un abcès au cerveau, « conséquence d'une otite moyenne chronique[1] ».
-Pierre Franco est le premier à pratiquer une lithotomie (traitement chirurgical des calculs de vessie) par voie haute (dite sus-pubienne ou incision hypogastrique) à Lausanne sur un enfant de deux ans[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 décembre : le roi de France François II meurt d'un abcès au cerveau, « conséquence d'une otite moyenne chronique ».
+Pierre Franco est le premier à pratiquer une lithotomie (traitement chirurgical des calculs de vessie) par voie haute (dite sus-pubienne ou incision hypogastrique) à Lausanne sur un enfant de deux ans.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1560_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1560_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15 janvier : Gaspard Bauhin (mort en 1624), botaniste et médecin suisse qui a développé un premier et important système de  classification des plantes[3].
-25 juin : Wilhelm Fabricius Hildanus (mort en 1634), chirurgien allemand[4].
-Oswald Croll (mort en 1609), médecin et alchimiste allemand[5].
-Nicolas Abraham de La Framboisière (mort en 1636), médecin et conseiller du roi, médecin en chef des armées, professeur et doyen de la faculté de médecine de Reims[6],[7]
-Vers 1560 : Johann Grasshoff (mort en 1623), alchimiste et juriste poméranien, conseiller médical d'Ernest de Bavière[8],[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 janvier : Gaspard Bauhin (mort en 1624), botaniste et médecin suisse qui a développé un premier et important système de  classification des plantes.
+25 juin : Wilhelm Fabricius Hildanus (mort en 1634), chirurgien allemand.
+Oswald Croll (mort en 1609), médecin et alchimiste allemand.
+Nicolas Abraham de La Framboisière (mort en 1636), médecin et conseiller du roi, médecin en chef des armées, professeur et doyen de la faculté de médecine de Reims,
+Vers 1560 : Johann Grasshoff (mort en 1623), alchimiste et juriste poméranien, conseiller médical d'Ernest de Bavière,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1560_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1560_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>André  de Laguna (né en 1499), médecin espagnol, au service du pape Jules III puis de Charles Quint et de Philippe II[10].
-Gian Giacomo Adria (né vers 1485), médecin, historien et humaniste italien[11].
-Thomas Phaer (en) (né vers 1510), avocat, pédiatre et écrivain anglais, auteur en 1544 d'une traduction de la version française du Regimen sanitatis Salerni[12], à laquelle il joint un  « Livre des enfants » (A Boke of Chyldren), « premier traité de pédiatrie rédigé en anglais[13] ».
-Johann Dryander (de) (né vers 1500), auteur en 1537 des Anatomiae[14], l'un des premiers manuels d'anatomie illustrés, paru avant même les Tabulae anatomicae (1538) de Vésale[15].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>André  de Laguna (né en 1499), médecin espagnol, au service du pape Jules III puis de Charles Quint et de Philippe II.
+Gian Giacomo Adria (né vers 1485), médecin, historien et humaniste italien.
+Thomas Phaer (en) (né vers 1510), avocat, pédiatre et écrivain anglais, auteur en 1544 d'une traduction de la version française du Regimen sanitatis Salerni, à laquelle il joint un  « Livre des enfants » (A Boke of Chyldren), « premier traité de pédiatrie rédigé en anglais ».
+Johann Dryander (de) (né vers 1500), auteur en 1537 des Anatomiae, l'un des premiers manuels d'anatomie illustrés, paru avant même les Tabulae anatomicae (1538) de Vésale.</t>
         </is>
       </c>
     </row>
